--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\14- Entity Framwork, MVC\MVC\01- lab\FinalProject\MVC_FinalProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\MVC_FinalProject\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7187A6-9111-4252-8637-CFC8A9043CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A7EAC-B087-40B3-BB46-F5DECC43CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -86,9 +97,6 @@
     <t>/Image/Products/1.png</t>
   </si>
   <si>
-    <t>/Image/Products/2.png</t>
-  </si>
-  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -142,6 +150,12 @@
   <si>
     <t>VariationOptionsId</t>
   </si>
+  <si>
+    <t>/Image/Products/1.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/2.jpg</t>
+  </si>
 </sst>
 </file>
 
@@ -176,12 +190,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066CD61-E16B-462B-820A-B24DBFE17BD9}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -567,13 +580,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -590,7 +603,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -601,13 +614,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -624,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -635,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -658,7 +671,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -669,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -692,7 +705,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -703,13 +716,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -726,7 +739,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -737,13 +750,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -760,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -771,13 +784,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -794,7 +807,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -805,13 +818,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -828,7 +841,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
@@ -839,13 +852,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -862,7 +875,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -873,13 +886,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -896,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -907,13 +920,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -930,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -941,13 +954,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -964,7 +977,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -975,13 +988,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -998,7 +1011,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1009,13 +1022,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1032,7 +1045,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1043,13 +1056,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1083,19 +1096,19 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1123,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -1143,7 +1156,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1163,7 +1176,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1183,7 +1196,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -1203,7 +1216,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>300</v>
@@ -1223,7 +1236,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1243,7 +1256,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
@@ -1263,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -1283,7 +1296,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -1303,7 +1316,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -1323,7 +1336,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1343,7 +1356,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>200</v>
@@ -1363,7 +1376,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>300</v>
@@ -1383,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1403,7 +1416,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>60</v>
@@ -1423,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
@@ -1443,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -1463,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1483,7 +1496,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1503,7 +1516,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <v>200</v>
@@ -1523,7 +1536,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <v>300</v>
@@ -1543,7 +1556,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1563,7 +1576,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <v>60</v>
@@ -1583,7 +1596,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
@@ -1603,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -1623,7 +1636,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
         <v>20</v>
@@ -1643,7 +1656,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1663,7 +1676,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>200</v>
@@ -1683,7 +1696,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
         <v>300</v>
@@ -1703,7 +1716,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -1723,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
         <v>60</v>
@@ -1743,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
@@ -1763,7 +1776,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
@@ -1783,7 +1796,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1">
         <v>20</v>
@@ -1803,7 +1816,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1823,7 +1836,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -1843,7 +1856,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="1">
         <v>300</v>
@@ -1863,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -1883,7 +1896,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
         <v>60</v>
@@ -1903,7 +1916,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" s="1">
         <v>100</v>
@@ -1923,7 +1936,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43" s="1">
         <v>50</v>
@@ -1943,7 +1956,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44" s="1">
         <v>20</v>
@@ -1963,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1983,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
@@ -2003,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="1">
         <v>300</v>
@@ -2023,7 +2036,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
@@ -2043,7 +2056,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" s="1">
         <v>60</v>
@@ -2063,7 +2076,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="1">
         <v>100</v>
@@ -2083,7 +2096,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -2103,7 +2116,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="1">
         <v>20</v>
@@ -2123,7 +2136,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2143,7 +2156,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C54" s="1">
         <v>200</v>
@@ -2163,7 +2176,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="1">
         <v>300</v>
@@ -2183,7 +2196,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1">
         <v>10</v>
@@ -2203,7 +2216,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C57" s="1">
         <v>60</v>
@@ -2223,7 +2236,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
         <v>100</v>
@@ -2243,7 +2256,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C59" s="1">
         <v>50</v>
@@ -2263,7 +2276,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -2283,7 +2296,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2303,7 +2316,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62" s="1">
         <v>200</v>
@@ -2323,7 +2336,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="1">
         <v>300</v>
@@ -2343,7 +2356,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
@@ -2363,7 +2376,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1">
         <v>60</v>
@@ -2383,7 +2396,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1">
         <v>100</v>
@@ -2403,7 +2416,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C67" s="1">
         <v>50</v>
@@ -2423,7 +2436,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C68" s="1">
         <v>20</v>
@@ -2443,7 +2456,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2463,7 +2476,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C70" s="1">
         <v>200</v>
@@ -2483,7 +2496,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C71" s="1">
         <v>300</v>
@@ -2503,7 +2516,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
@@ -2523,7 +2536,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C73" s="1">
         <v>60</v>
@@ -2543,7 +2556,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -2563,7 +2576,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C75" s="1">
         <v>50</v>
@@ -2583,7 +2596,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C76" s="1">
         <v>20</v>
@@ -2603,7 +2616,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -2623,7 +2636,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C78" s="1">
         <v>200</v>
@@ -2643,7 +2656,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C79" s="1">
         <v>300</v>
@@ -2663,7 +2676,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
@@ -2683,7 +2696,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C81" s="1">
         <v>60</v>
@@ -2703,7 +2716,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C82" s="1">
         <v>100</v>
@@ -2723,7 +2736,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C83" s="1">
         <v>50</v>
@@ -2743,7 +2756,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C84" s="1">
         <v>20</v>
@@ -2763,7 +2776,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -2783,7 +2796,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C86" s="1">
         <v>200</v>
@@ -2803,7 +2816,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
         <v>300</v>
@@ -2823,7 +2836,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
@@ -2843,7 +2856,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C89" s="1">
         <v>60</v>
@@ -2863,7 +2876,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="1">
         <v>100</v>
@@ -2883,7 +2896,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="1">
         <v>50</v>
@@ -2903,7 +2916,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="1">
         <v>20</v>
@@ -2923,7 +2936,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2943,7 +2956,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C94" s="1">
         <v>200</v>
@@ -2963,7 +2976,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C95" s="1">
         <v>300</v>
@@ -2983,7 +2996,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
@@ -3003,7 +3016,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C97" s="1">
         <v>60</v>
@@ -3023,7 +3036,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C98" s="1">
         <v>100</v>
@@ -3043,7 +3056,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C99" s="1">
         <v>50</v>
@@ -3063,7 +3076,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C100" s="1">
         <v>20</v>
@@ -3083,7 +3096,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3103,7 +3116,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C102" s="1">
         <v>200</v>
@@ -3123,7 +3136,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C103" s="1">
         <v>300</v>
@@ -3143,7 +3156,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C104" s="1">
         <v>10</v>
@@ -3163,7 +3176,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C105" s="1">
         <v>60</v>
@@ -3183,7 +3196,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C106" s="1">
         <v>100</v>
@@ -3203,7 +3216,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C107" s="1">
         <v>50</v>
@@ -3223,7 +3236,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C108" s="1">
         <v>20</v>
@@ -3243,7 +3256,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -3263,7 +3276,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C110" s="1">
         <v>200</v>
@@ -3283,7 +3296,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C111" s="1">
         <v>300</v>
@@ -3303,7 +3316,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -3323,7 +3336,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C113" s="1">
         <v>60</v>
@@ -3343,7 +3356,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C114" s="1">
         <v>100</v>
@@ -3363,7 +3376,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C115" s="1">
         <v>50</v>
@@ -3383,7 +3396,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -3403,7 +3416,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -3423,7 +3436,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C118" s="1">
         <v>200</v>
@@ -3443,7 +3456,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C119" s="1">
         <v>300</v>
@@ -3463,7 +3476,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
@@ -3483,7 +3496,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C121" s="1">
         <v>60</v>
@@ -3589,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3600,7 +3613,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3632,9 +3645,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F1009-4870-4B7C-B1D7-976DA57B3E6B}">
-  <dimension ref="A1:G241"/>
+  <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3644,15 +3657,15 @@
     <col min="2" max="2" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3660,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3668,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>A2+1</f>
         <v>2</v>
@@ -3677,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>A4</f>
         <v>2</v>
@@ -3686,7 +3699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" ref="A6" si="0">A4+1</f>
         <v>3</v>
@@ -3695,16 +3708,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" ref="A7:A70" si="1">A6</f>
+        <f t="shared" ref="A7" si="1">A6</f>
         <v>3</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" ref="A8" si="2">A6+1</f>
         <v>4</v>
@@ -3712,19 +3725,17 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f t="shared" ref="A9:A72" si="3">A8</f>
+        <f t="shared" ref="A9" si="3">A8</f>
         <v>4</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" ref="A10" si="4">A8+1</f>
         <v>5</v>
@@ -3732,19 +3743,17 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f t="shared" ref="A11:A74" si="5">A10</f>
+        <f t="shared" ref="A11" si="5">A10</f>
         <v>5</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ref="A12" si="6">A10+1</f>
         <v>6</v>
@@ -3752,19 +3761,17 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f t="shared" ref="A13:A76" si="7">A12</f>
+        <f t="shared" ref="A13" si="7">A12</f>
         <v>6</v>
       </c>
       <c r="B13">
         <v>4</v>
       </c>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" ref="A14" si="8">A12+1</f>
         <v>7</v>
@@ -3772,19 +3779,17 @@
       <c r="B14">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f t="shared" ref="A15:A78" si="9">A14</f>
+        <f t="shared" ref="A15" si="9">A14</f>
         <v>7</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" ref="A16" si="10">A14+1</f>
         <v>8</v>
@@ -3792,19 +3797,17 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f t="shared" ref="A17:A80" si="11">A16</f>
+        <f t="shared" ref="A17" si="11">A16</f>
         <v>8</v>
       </c>
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" ref="A18" si="12">A16+1</f>
         <v>9</v>
@@ -3812,19 +3815,17 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <f t="shared" ref="A19:A82" si="13">A18</f>
+        <f t="shared" ref="A19" si="13">A18</f>
         <v>9</v>
       </c>
       <c r="B19">
         <v>3</v>
       </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" ref="A20" si="14">A18+1</f>
         <v>10</v>
@@ -3832,18 +3833,17 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <f t="shared" ref="A21:A84" si="15">A20</f>
+        <f t="shared" ref="A21" si="15">A20</f>
         <v>10</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ref="A22" si="16">A20+1</f>
         <v>11</v>
@@ -3852,16 +3852,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <f t="shared" ref="A23:A86" si="17">A22</f>
+        <f t="shared" ref="A23" si="17">A22</f>
         <v>11</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" ref="A24" si="18">A22+1</f>
         <v>12</v>
@@ -3870,16 +3870,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <f t="shared" ref="A25:A88" si="19">A24</f>
+        <f t="shared" ref="A25" si="19">A24</f>
         <v>12</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" ref="A26" si="20">A24+1</f>
         <v>13</v>
@@ -3888,16 +3888,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <f t="shared" ref="A27:A90" si="21">A26</f>
+        <f t="shared" ref="A27" si="21">A26</f>
         <v>13</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" ref="A28" si="22">A26+1</f>
         <v>14</v>
@@ -3906,16 +3906,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <f t="shared" ref="A29:A92" si="23">A28</f>
+        <f t="shared" ref="A29" si="23">A28</f>
         <v>14</v>
       </c>
       <c r="B29">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" ref="A30" si="24">A28+1</f>
         <v>15</v>
@@ -3924,16 +3924,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <f t="shared" ref="A31:A94" si="25">A30</f>
+        <f t="shared" ref="A31" si="25">A30</f>
         <v>15</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" ref="A32" si="26">A30+1</f>
         <v>16</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <f t="shared" ref="A33:A96" si="27">A32</f>
+        <f t="shared" ref="A33" si="27">A32</f>
         <v>16</v>
       </c>
       <c r="B33">
@@ -3962,7 +3962,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <f t="shared" ref="A35:A98" si="29">A34</f>
+        <f t="shared" ref="A35" si="29">A34</f>
         <v>17</v>
       </c>
       <c r="B35">
@@ -3980,7 +3980,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <f t="shared" ref="A37:A100" si="31">A36</f>
+        <f t="shared" ref="A37" si="31">A36</f>
         <v>18</v>
       </c>
       <c r="B37">
@@ -3998,7 +3998,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <f t="shared" ref="A39:A102" si="33">A38</f>
+        <f t="shared" ref="A39" si="33">A38</f>
         <v>19</v>
       </c>
       <c r="B39">
@@ -4016,7 +4016,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <f t="shared" ref="A41:A104" si="35">A40</f>
+        <f t="shared" ref="A41" si="35">A40</f>
         <v>20</v>
       </c>
       <c r="B41">
@@ -4034,7 +4034,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <f t="shared" ref="A43:A74" si="37">A42</f>
+        <f t="shared" ref="A43" si="37">A42</f>
         <v>21</v>
       </c>
       <c r="B43">
@@ -4052,7 +4052,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <f t="shared" ref="A45:A76" si="39">A44</f>
+        <f t="shared" ref="A45" si="39">A44</f>
         <v>22</v>
       </c>
       <c r="B45">
@@ -4070,7 +4070,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <f t="shared" ref="A47:A78" si="41">A46</f>
+        <f t="shared" ref="A47" si="41">A46</f>
         <v>23</v>
       </c>
       <c r="B47">
@@ -4088,7 +4088,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <f t="shared" ref="A49:A80" si="43">A48</f>
+        <f t="shared" ref="A49" si="43">A48</f>
         <v>24</v>
       </c>
       <c r="B49">
@@ -4106,7 +4106,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <f t="shared" ref="A51:A82" si="45">A50</f>
+        <f t="shared" ref="A51" si="45">A50</f>
         <v>25</v>
       </c>
       <c r="B51">
@@ -4124,7 +4124,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <f t="shared" ref="A53:A84" si="47">A52</f>
+        <f t="shared" ref="A53" si="47">A52</f>
         <v>26</v>
       </c>
       <c r="B53">
@@ -4142,7 +4142,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <f t="shared" ref="A55:A86" si="49">A54</f>
+        <f t="shared" ref="A55" si="49">A54</f>
         <v>27</v>
       </c>
       <c r="B55">
@@ -4160,7 +4160,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <f t="shared" ref="A57:A88" si="51">A56</f>
+        <f t="shared" ref="A57" si="51">A56</f>
         <v>28</v>
       </c>
       <c r="B57">
@@ -4178,7 +4178,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <f t="shared" ref="A59:A90" si="53">A58</f>
+        <f t="shared" ref="A59" si="53">A58</f>
         <v>29</v>
       </c>
       <c r="B59">
@@ -4196,7 +4196,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <f t="shared" ref="A61:A92" si="55">A60</f>
+        <f t="shared" ref="A61" si="55">A60</f>
         <v>30</v>
       </c>
       <c r="B61">
@@ -4214,7 +4214,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <f t="shared" ref="A63:A94" si="57">A62</f>
+        <f t="shared" ref="A63" si="57">A62</f>
         <v>31</v>
       </c>
       <c r="B63">
@@ -4232,7 +4232,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <f t="shared" ref="A65:A96" si="59">A64</f>
+        <f t="shared" ref="A65" si="59">A64</f>
         <v>32</v>
       </c>
       <c r="B65">
@@ -4250,7 +4250,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <f t="shared" ref="A67:A98" si="61">A66</f>
+        <f t="shared" ref="A67" si="61">A66</f>
         <v>33</v>
       </c>
       <c r="B67">
@@ -4268,7 +4268,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <f t="shared" ref="A69:A100" si="63">A68</f>
+        <f t="shared" ref="A69" si="63">A68</f>
         <v>34</v>
       </c>
       <c r="B69">
@@ -4286,7 +4286,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <f t="shared" ref="A71:A102" si="65">A70</f>
+        <f t="shared" ref="A71" si="65">A70</f>
         <v>35</v>
       </c>
       <c r="B71">
@@ -4304,7 +4304,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <f t="shared" ref="A73:A104" si="67">A72</f>
+        <f t="shared" ref="A73" si="67">A72</f>
         <v>36</v>
       </c>
       <c r="B73">
@@ -4322,7 +4322,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <f t="shared" ref="A75:A106" si="69">A74</f>
+        <f t="shared" ref="A75" si="69">A74</f>
         <v>37</v>
       </c>
       <c r="B75">
@@ -4340,7 +4340,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <f t="shared" ref="A77:A108" si="71">A76</f>
+        <f t="shared" ref="A77" si="71">A76</f>
         <v>38</v>
       </c>
       <c r="B77">
@@ -4358,7 +4358,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <f t="shared" ref="A79:A110" si="73">A78</f>
+        <f t="shared" ref="A79" si="73">A78</f>
         <v>39</v>
       </c>
       <c r="B79">
@@ -4376,7 +4376,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <f t="shared" ref="A81:A112" si="75">A80</f>
+        <f t="shared" ref="A81" si="75">A80</f>
         <v>40</v>
       </c>
       <c r="B81">
@@ -4394,7 +4394,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <f t="shared" ref="A83:A114" si="77">A82</f>
+        <f t="shared" ref="A83" si="77">A82</f>
         <v>41</v>
       </c>
       <c r="B83">
@@ -4412,7 +4412,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <f t="shared" ref="A85:A116" si="79">A84</f>
+        <f t="shared" ref="A85" si="79">A84</f>
         <v>42</v>
       </c>
       <c r="B85">
@@ -4430,7 +4430,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <f t="shared" ref="A87:A118" si="81">A86</f>
+        <f t="shared" ref="A87" si="81">A86</f>
         <v>43</v>
       </c>
       <c r="B87">
@@ -4448,7 +4448,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <f t="shared" ref="A89:A120" si="83">A88</f>
+        <f t="shared" ref="A89" si="83">A88</f>
         <v>44</v>
       </c>
       <c r="B89">
@@ -4466,7 +4466,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <f t="shared" ref="A91:A122" si="85">A90</f>
+        <f t="shared" ref="A91" si="85">A90</f>
         <v>45</v>
       </c>
       <c r="B91">
@@ -4484,7 +4484,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <f t="shared" ref="A93:A124" si="87">A92</f>
+        <f t="shared" ref="A93" si="87">A92</f>
         <v>46</v>
       </c>
       <c r="B93">
@@ -4502,7 +4502,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <f t="shared" ref="A95:A126" si="89">A94</f>
+        <f t="shared" ref="A95" si="89">A94</f>
         <v>47</v>
       </c>
       <c r="B95">
@@ -4520,7 +4520,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <f t="shared" ref="A97:A128" si="91">A96</f>
+        <f t="shared" ref="A97" si="91">A96</f>
         <v>48</v>
       </c>
       <c r="B97">
@@ -4538,7 +4538,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <f t="shared" ref="A99:A130" si="93">A98</f>
+        <f t="shared" ref="A99" si="93">A98</f>
         <v>49</v>
       </c>
       <c r="B99">
@@ -4556,7 +4556,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <f t="shared" ref="A101:A132" si="95">A100</f>
+        <f t="shared" ref="A101" si="95">A100</f>
         <v>50</v>
       </c>
       <c r="B101">
@@ -4574,7 +4574,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <f t="shared" ref="A103:A134" si="97">A102</f>
+        <f t="shared" ref="A103" si="97">A102</f>
         <v>51</v>
       </c>
       <c r="B103">
@@ -4592,7 +4592,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <f t="shared" ref="A105:A136" si="99">A104</f>
+        <f t="shared" ref="A105" si="99">A104</f>
         <v>52</v>
       </c>
       <c r="B105">
@@ -4610,7 +4610,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <f t="shared" ref="A107:A138" si="101">A106</f>
+        <f t="shared" ref="A107" si="101">A106</f>
         <v>53</v>
       </c>
       <c r="B107">
@@ -4628,7 +4628,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <f t="shared" ref="A109:A140" si="103">A108</f>
+        <f t="shared" ref="A109" si="103">A108</f>
         <v>54</v>
       </c>
       <c r="B109">
@@ -4646,7 +4646,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <f t="shared" ref="A111:A142" si="105">A110</f>
+        <f t="shared" ref="A111" si="105">A110</f>
         <v>55</v>
       </c>
       <c r="B111">
@@ -4664,7 +4664,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <f t="shared" ref="A113:A144" si="107">A112</f>
+        <f t="shared" ref="A113" si="107">A112</f>
         <v>56</v>
       </c>
       <c r="B113">
@@ -4682,7 +4682,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <f t="shared" ref="A115:A146" si="109">A114</f>
+        <f t="shared" ref="A115" si="109">A114</f>
         <v>57</v>
       </c>
       <c r="B115">
@@ -4700,7 +4700,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <f t="shared" ref="A117:A148" si="111">A116</f>
+        <f t="shared" ref="A117" si="111">A116</f>
         <v>58</v>
       </c>
       <c r="B117">
@@ -4718,7 +4718,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <f t="shared" ref="A119:A150" si="113">A118</f>
+        <f t="shared" ref="A119" si="113">A118</f>
         <v>59</v>
       </c>
       <c r="B119">
@@ -4736,7 +4736,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <f t="shared" ref="A121:A152" si="115">A120</f>
+        <f t="shared" ref="A121" si="115">A120</f>
         <v>60</v>
       </c>
       <c r="B121">
@@ -4754,7 +4754,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <f t="shared" ref="A123:A154" si="117">A122</f>
+        <f t="shared" ref="A123" si="117">A122</f>
         <v>61</v>
       </c>
       <c r="B123">
@@ -4772,7 +4772,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <f t="shared" ref="A125:A156" si="119">A124</f>
+        <f t="shared" ref="A125" si="119">A124</f>
         <v>62</v>
       </c>
       <c r="B125">
@@ -4790,7 +4790,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <f t="shared" ref="A127:A158" si="121">A126</f>
+        <f t="shared" ref="A127" si="121">A126</f>
         <v>63</v>
       </c>
       <c r="B127">
@@ -4808,7 +4808,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <f t="shared" ref="A129:A160" si="123">A128</f>
+        <f t="shared" ref="A129" si="123">A128</f>
         <v>64</v>
       </c>
       <c r="B129">
@@ -4826,7 +4826,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <f t="shared" ref="A131:A162" si="125">A130</f>
+        <f t="shared" ref="A131" si="125">A130</f>
         <v>65</v>
       </c>
       <c r="B131">
@@ -4844,7 +4844,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <f t="shared" ref="A133:A164" si="127">A132</f>
+        <f t="shared" ref="A133" si="127">A132</f>
         <v>66</v>
       </c>
       <c r="B133">
@@ -4862,7 +4862,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <f t="shared" ref="A135:A166" si="129">A134</f>
+        <f t="shared" ref="A135" si="129">A134</f>
         <v>67</v>
       </c>
       <c r="B135">
@@ -4880,7 +4880,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <f t="shared" ref="A137:A168" si="131">A136</f>
+        <f t="shared" ref="A137" si="131">A136</f>
         <v>68</v>
       </c>
       <c r="B137">
@@ -4898,7 +4898,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <f t="shared" ref="A139:A170" si="133">A138</f>
+        <f t="shared" ref="A139" si="133">A138</f>
         <v>69</v>
       </c>
       <c r="B139">
@@ -4916,7 +4916,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <f t="shared" ref="A141:A172" si="135">A140</f>
+        <f t="shared" ref="A141" si="135">A140</f>
         <v>70</v>
       </c>
       <c r="B141">
@@ -4934,7 +4934,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <f t="shared" ref="A143:A174" si="137">A142</f>
+        <f t="shared" ref="A143" si="137">A142</f>
         <v>71</v>
       </c>
       <c r="B143">
@@ -4952,7 +4952,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <f t="shared" ref="A145:A176" si="139">A144</f>
+        <f t="shared" ref="A145" si="139">A144</f>
         <v>72</v>
       </c>
       <c r="B145">
@@ -4970,7 +4970,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <f t="shared" ref="A147:A178" si="141">A146</f>
+        <f t="shared" ref="A147" si="141">A146</f>
         <v>73</v>
       </c>
       <c r="B147">
@@ -4988,7 +4988,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <f t="shared" ref="A149:A180" si="143">A148</f>
+        <f t="shared" ref="A149" si="143">A148</f>
         <v>74</v>
       </c>
       <c r="B149">
@@ -5006,7 +5006,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <f t="shared" ref="A151:A182" si="145">A150</f>
+        <f t="shared" ref="A151" si="145">A150</f>
         <v>75</v>
       </c>
       <c r="B151">
@@ -5024,7 +5024,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <f t="shared" ref="A153:A184" si="147">A152</f>
+        <f t="shared" ref="A153" si="147">A152</f>
         <v>76</v>
       </c>
       <c r="B153">
@@ -5042,7 +5042,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <f t="shared" ref="A155:A186" si="149">A154</f>
+        <f t="shared" ref="A155" si="149">A154</f>
         <v>77</v>
       </c>
       <c r="B155">
@@ -5060,7 +5060,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <f t="shared" ref="A157:A188" si="151">A156</f>
+        <f t="shared" ref="A157" si="151">A156</f>
         <v>78</v>
       </c>
       <c r="B157">
@@ -5078,7 +5078,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <f t="shared" ref="A159:A190" si="153">A158</f>
+        <f t="shared" ref="A159" si="153">A158</f>
         <v>79</v>
       </c>
       <c r="B159">
@@ -5096,7 +5096,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <f t="shared" ref="A161:A192" si="155">A160</f>
+        <f t="shared" ref="A161" si="155">A160</f>
         <v>80</v>
       </c>
       <c r="B161">
@@ -5114,7 +5114,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <f t="shared" ref="A163:A194" si="157">A162</f>
+        <f t="shared" ref="A163" si="157">A162</f>
         <v>81</v>
       </c>
       <c r="B163">
@@ -5132,7 +5132,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <f t="shared" ref="A165:A196" si="159">A164</f>
+        <f t="shared" ref="A165" si="159">A164</f>
         <v>82</v>
       </c>
       <c r="B165">
@@ -5150,7 +5150,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <f t="shared" ref="A167:A198" si="161">A166</f>
+        <f t="shared" ref="A167" si="161">A166</f>
         <v>83</v>
       </c>
       <c r="B167">
@@ -5168,7 +5168,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <f t="shared" ref="A169:A200" si="163">A168</f>
+        <f t="shared" ref="A169" si="163">A168</f>
         <v>84</v>
       </c>
       <c r="B169">
@@ -5186,7 +5186,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <f t="shared" ref="A171:A202" si="165">A170</f>
+        <f t="shared" ref="A171" si="165">A170</f>
         <v>85</v>
       </c>
       <c r="B171">
@@ -5204,7 +5204,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <f t="shared" ref="A173:A204" si="167">A172</f>
+        <f t="shared" ref="A173" si="167">A172</f>
         <v>86</v>
       </c>
       <c r="B173">
@@ -5222,7 +5222,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <f t="shared" ref="A175:A206" si="169">A174</f>
+        <f t="shared" ref="A175" si="169">A174</f>
         <v>87</v>
       </c>
       <c r="B175">
@@ -5240,7 +5240,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
-        <f t="shared" ref="A177:A208" si="171">A176</f>
+        <f t="shared" ref="A177" si="171">A176</f>
         <v>88</v>
       </c>
       <c r="B177">
@@ -5258,7 +5258,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
-        <f t="shared" ref="A179:A210" si="173">A178</f>
+        <f t="shared" ref="A179" si="173">A178</f>
         <v>89</v>
       </c>
       <c r="B179">
@@ -5276,7 +5276,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
-        <f t="shared" ref="A181:A212" si="175">A180</f>
+        <f t="shared" ref="A181" si="175">A180</f>
         <v>90</v>
       </c>
       <c r="B181">
@@ -5294,7 +5294,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
-        <f t="shared" ref="A183:A214" si="177">A182</f>
+        <f t="shared" ref="A183" si="177">A182</f>
         <v>91</v>
       </c>
       <c r="B183">
@@ -5312,7 +5312,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
-        <f t="shared" ref="A185:A216" si="179">A184</f>
+        <f t="shared" ref="A185" si="179">A184</f>
         <v>92</v>
       </c>
       <c r="B185">
@@ -5330,7 +5330,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
-        <f t="shared" ref="A187:A218" si="181">A186</f>
+        <f t="shared" ref="A187" si="181">A186</f>
         <v>93</v>
       </c>
       <c r="B187">
@@ -5348,7 +5348,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
-        <f t="shared" ref="A189:A220" si="183">A188</f>
+        <f t="shared" ref="A189" si="183">A188</f>
         <v>94</v>
       </c>
       <c r="B189">
@@ -5366,7 +5366,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
-        <f t="shared" ref="A191:A222" si="185">A190</f>
+        <f t="shared" ref="A191" si="185">A190</f>
         <v>95</v>
       </c>
       <c r="B191">
@@ -5384,7 +5384,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
-        <f t="shared" ref="A193:A224" si="187">A192</f>
+        <f t="shared" ref="A193" si="187">A192</f>
         <v>96</v>
       </c>
       <c r="B193">
@@ -5402,7 +5402,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
-        <f t="shared" ref="A195:A241" si="189">A194</f>
+        <f t="shared" ref="A195" si="189">A194</f>
         <v>97</v>
       </c>
       <c r="B195">
@@ -5420,7 +5420,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
-        <f t="shared" ref="A197:A241" si="191">A196</f>
+        <f t="shared" ref="A197" si="191">A196</f>
         <v>98</v>
       </c>
       <c r="B197">
@@ -5438,7 +5438,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
-        <f t="shared" ref="A199:A241" si="193">A198</f>
+        <f t="shared" ref="A199" si="193">A198</f>
         <v>99</v>
       </c>
       <c r="B199">
@@ -5456,7 +5456,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
-        <f t="shared" ref="A201:A241" si="195">A200</f>
+        <f t="shared" ref="A201" si="195">A200</f>
         <v>100</v>
       </c>
       <c r="B201">
@@ -5474,7 +5474,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
-        <f t="shared" ref="A203:A241" si="197">A202</f>
+        <f t="shared" ref="A203" si="197">A202</f>
         <v>101</v>
       </c>
       <c r="B203">
@@ -5492,7 +5492,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
-        <f t="shared" ref="A205:A241" si="199">A204</f>
+        <f t="shared" ref="A205" si="199">A204</f>
         <v>102</v>
       </c>
       <c r="B205">
@@ -5510,7 +5510,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
-        <f t="shared" ref="A207:A241" si="201">A206</f>
+        <f t="shared" ref="A207" si="201">A206</f>
         <v>103</v>
       </c>
       <c r="B207">
@@ -5528,7 +5528,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
-        <f t="shared" ref="A209:A241" si="203">A208</f>
+        <f t="shared" ref="A209" si="203">A208</f>
         <v>104</v>
       </c>
       <c r="B209">
@@ -5546,7 +5546,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
-        <f t="shared" ref="A211:A241" si="205">A210</f>
+        <f t="shared" ref="A211" si="205">A210</f>
         <v>105</v>
       </c>
       <c r="B211">
@@ -5564,7 +5564,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
-        <f t="shared" ref="A213:A241" si="207">A212</f>
+        <f t="shared" ref="A213" si="207">A212</f>
         <v>106</v>
       </c>
       <c r="B213">
@@ -5582,7 +5582,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
-        <f t="shared" ref="A215:A241" si="209">A214</f>
+        <f t="shared" ref="A215" si="209">A214</f>
         <v>107</v>
       </c>
       <c r="B215">
@@ -5600,7 +5600,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
-        <f t="shared" ref="A217:A241" si="211">A216</f>
+        <f t="shared" ref="A217" si="211">A216</f>
         <v>108</v>
       </c>
       <c r="B217">
@@ -5618,7 +5618,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
-        <f t="shared" ref="A219:A241" si="213">A218</f>
+        <f t="shared" ref="A219" si="213">A218</f>
         <v>109</v>
       </c>
       <c r="B219">
@@ -5636,7 +5636,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
-        <f t="shared" ref="A221:A241" si="215">A220</f>
+        <f t="shared" ref="A221" si="215">A220</f>
         <v>110</v>
       </c>
       <c r="B221">
@@ -5654,7 +5654,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
-        <f t="shared" ref="A223:A241" si="217">A222</f>
+        <f t="shared" ref="A223" si="217">A222</f>
         <v>111</v>
       </c>
       <c r="B223">
@@ -5672,7 +5672,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
-        <f t="shared" ref="A225:A241" si="219">A224</f>
+        <f t="shared" ref="A225" si="219">A224</f>
         <v>112</v>
       </c>
       <c r="B225">
@@ -5690,7 +5690,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
-        <f t="shared" ref="A227:A241" si="221">A226</f>
+        <f t="shared" ref="A227" si="221">A226</f>
         <v>113</v>
       </c>
       <c r="B227">
@@ -5708,7 +5708,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
-        <f t="shared" ref="A229:A241" si="223">A228</f>
+        <f t="shared" ref="A229" si="223">A228</f>
         <v>114</v>
       </c>
       <c r="B229">
@@ -5726,7 +5726,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
-        <f t="shared" ref="A231:A241" si="225">A230</f>
+        <f t="shared" ref="A231" si="225">A230</f>
         <v>115</v>
       </c>
       <c r="B231">
@@ -5744,7 +5744,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
-        <f t="shared" ref="A233:A241" si="227">A232</f>
+        <f t="shared" ref="A233" si="227">A232</f>
         <v>116</v>
       </c>
       <c r="B233">
@@ -5762,7 +5762,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
-        <f t="shared" ref="A235:A241" si="229">A234</f>
+        <f t="shared" ref="A235" si="229">A234</f>
         <v>117</v>
       </c>
       <c r="B235">
@@ -5780,7 +5780,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
-        <f t="shared" ref="A237:A241" si="231">A236</f>
+        <f t="shared" ref="A237" si="231">A236</f>
         <v>118</v>
       </c>
       <c r="B237">
@@ -5798,7 +5798,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
-        <f t="shared" ref="A239:A241" si="233">A238</f>
+        <f t="shared" ref="A239" si="233">A238</f>
         <v>119</v>
       </c>
       <c r="B239">

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\MVC_FinalProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__ITI\ASP.NET\MVC_FinalProject - Copy\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40A7EAC-B087-40B3-BB46-F5DECC43CBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5034C382-82B1-4C22-8BEB-9241CEE5B9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Variation" sheetId="4" r:id="rId4"/>
     <sheet name="VariationOptions" sheetId="5" r:id="rId5"/>
     <sheet name="ProductItem_VariationOptions" sheetId="6" r:id="rId6"/>
+    <sheet name="ShippingMethod" sheetId="7" r:id="rId7"/>
+    <sheet name="OrderStatus" sheetId="8" r:id="rId8"/>
+    <sheet name="Countries" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="240">
   <si>
     <t>Id</t>
   </si>
@@ -97,6 +100,9 @@
     <t>/Image/Products/1.png</t>
   </si>
   <si>
+    <t>/Image/Products/2.png</t>
+  </si>
+  <si>
     <t>SKU</t>
   </si>
   <si>
@@ -151,23 +157,637 @@
     <t>VariationOptionsId</t>
   </si>
   <si>
-    <t>/Image/Products/1.jpg</t>
-  </si>
-  <si>
-    <t>/Image/Products/2.jpg</t>
+    <t>Regular</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Returned</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>On Hold</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cabo Verde</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Channel Islands</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Holy See</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macao</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome &amp; Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The Bahamas</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,17 +807,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{644DF28B-D442-4895-90DC-422C99DF9785}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -475,18 +1098,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -502,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -510,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -525,23 +1147,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D066CD61-E16B-462B-820A-B24DBFE17BD9}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="18.796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -558,7 +1181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -569,30 +1192,30 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -603,30 +1226,30 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -637,30 +1260,30 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -671,30 +1294,30 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -705,30 +1328,30 @@
         <v>16</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -739,30 +1362,30 @@
         <v>16</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -773,30 +1396,30 @@
         <v>16</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -807,30 +1430,30 @@
         <v>16</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -841,30 +1464,30 @@
         <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -875,30 +1498,30 @@
         <v>16</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D21" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -909,30 +1532,30 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -943,30 +1566,30 @@
         <v>16</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -977,30 +1600,30 @@
         <v>16</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1011,30 +1634,30 @@
         <v>16</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1045,24 +1668,24 @@
         <v>16</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1076,47 +1699,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519DA83-9E2C-4AA7-8154-1F4E82083125}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="34.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.19921875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -1131,12 +1755,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -1151,12 +1775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
@@ -1171,12 +1795,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1191,12 +1815,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -1211,12 +1835,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>300</v>
@@ -1231,12 +1855,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1251,12 +1875,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
@@ -1271,12 +1895,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
@@ -1291,12 +1915,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
@@ -1311,12 +1935,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
@@ -1331,12 +1955,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1351,12 +1975,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>200</v>
@@ -1371,12 +1995,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>300</v>
@@ -1391,12 +2015,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
@@ -1411,12 +2035,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>60</v>
@@ -1431,12 +2055,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
@@ -1451,12 +2075,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
@@ -1471,12 +2095,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
@@ -1491,12 +2115,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1511,12 +2135,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <v>200</v>
@@ -1531,12 +2155,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <v>300</v>
@@ -1551,12 +2175,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
@@ -1571,12 +2195,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <v>60</v>
@@ -1591,12 +2215,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
@@ -1611,12 +2235,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
@@ -1631,12 +2255,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="1">
         <v>20</v>
@@ -1651,12 +2275,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -1671,12 +2295,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="1">
         <v>200</v>
@@ -1691,12 +2315,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C31" s="1">
         <v>300</v>
@@ -1711,12 +2335,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
@@ -1731,12 +2355,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>60</v>
@@ -1751,12 +2375,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
@@ -1771,12 +2395,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
@@ -1791,12 +2415,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" s="1">
         <v>20</v>
@@ -1811,12 +2435,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1831,12 +2455,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -1851,12 +2475,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>300</v>
@@ -1871,12 +2495,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
@@ -1891,12 +2515,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" s="1">
         <v>60</v>
@@ -1911,12 +2535,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1">
         <v>100</v>
@@ -1931,12 +2555,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1">
         <v>50</v>
@@ -1951,12 +2575,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C44" s="1">
         <v>20</v>
@@ -1971,12 +2595,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1991,12 +2615,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
@@ -2011,12 +2635,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C47" s="1">
         <v>300</v>
@@ -2031,12 +2655,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
@@ -2051,12 +2675,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C49" s="1">
         <v>60</v>
@@ -2071,12 +2695,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1">
         <v>100</v>
@@ -2091,12 +2715,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -2111,12 +2735,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1">
         <v>20</v>
@@ -2131,12 +2755,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2151,12 +2775,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C54" s="1">
         <v>200</v>
@@ -2171,12 +2795,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C55" s="1">
         <v>300</v>
@@ -2191,12 +2815,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C56" s="1">
         <v>10</v>
@@ -2211,12 +2835,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C57" s="1">
         <v>60</v>
@@ -2231,12 +2855,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C58" s="1">
         <v>100</v>
@@ -2251,12 +2875,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C59" s="1">
         <v>50</v>
@@ -2271,12 +2895,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
@@ -2291,12 +2915,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -2311,12 +2935,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C62" s="1">
         <v>200</v>
@@ -2331,12 +2955,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1">
         <v>300</v>
@@ -2351,12 +2975,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
@@ -2371,12 +2995,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C65" s="1">
         <v>60</v>
@@ -2391,12 +3015,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66" s="1">
         <v>100</v>
@@ -2411,12 +3035,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="1">
         <v>50</v>
@@ -2431,12 +3055,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C68" s="1">
         <v>20</v>
@@ -2451,12 +3075,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -2471,12 +3095,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C70" s="1">
         <v>200</v>
@@ -2491,12 +3115,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C71" s="1">
         <v>300</v>
@@ -2511,12 +3135,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
@@ -2531,12 +3155,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1">
         <v>60</v>
@@ -2551,12 +3175,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
@@ -2571,12 +3195,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1">
         <v>50</v>
@@ -2591,12 +3215,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
         <v>20</v>
@@ -2611,12 +3235,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -2631,12 +3255,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C78" s="1">
         <v>200</v>
@@ -2651,12 +3275,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79" s="1">
         <v>300</v>
@@ -2671,12 +3295,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
@@ -2691,12 +3315,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C81" s="1">
         <v>60</v>
@@ -2711,12 +3335,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1">
         <v>100</v>
@@ -2731,12 +3355,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C83" s="1">
         <v>50</v>
@@ -2751,12 +3375,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C84" s="1">
         <v>20</v>
@@ -2771,12 +3395,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -2791,12 +3415,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C86" s="1">
         <v>200</v>
@@ -2811,12 +3435,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C87" s="1">
         <v>300</v>
@@ -2831,12 +3455,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
@@ -2851,12 +3475,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C89" s="1">
         <v>60</v>
@@ -2871,12 +3495,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C90" s="1">
         <v>100</v>
@@ -2891,12 +3515,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C91" s="1">
         <v>50</v>
@@ -2911,12 +3535,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C92" s="1">
         <v>20</v>
@@ -2931,12 +3555,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -2951,12 +3575,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94" s="1">
         <v>200</v>
@@ -2971,12 +3595,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C95" s="1">
         <v>300</v>
@@ -2991,12 +3615,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
@@ -3011,12 +3635,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C97" s="1">
         <v>60</v>
@@ -3031,12 +3655,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C98" s="1">
         <v>100</v>
@@ -3051,12 +3675,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C99" s="1">
         <v>50</v>
@@ -3071,12 +3695,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C100" s="1">
         <v>20</v>
@@ -3091,12 +3715,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3111,12 +3735,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C102" s="1">
         <v>200</v>
@@ -3131,12 +3755,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C103" s="1">
         <v>300</v>
@@ -3151,12 +3775,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C104" s="1">
         <v>10</v>
@@ -3171,12 +3795,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
         <v>60</v>
@@ -3191,12 +3815,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C106" s="1">
         <v>100</v>
@@ -3211,12 +3835,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" s="1">
         <v>50</v>
@@ -3231,12 +3855,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C108" s="1">
         <v>20</v>
@@ -3251,12 +3875,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -3271,12 +3895,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C110" s="1">
         <v>200</v>
@@ -3291,12 +3915,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C111" s="1">
         <v>300</v>
@@ -3311,12 +3935,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
@@ -3331,12 +3955,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C113" s="1">
         <v>60</v>
@@ -3351,12 +3975,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C114" s="1">
         <v>100</v>
@@ -3371,12 +3995,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C115" s="1">
         <v>50</v>
@@ -3391,12 +4015,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
@@ -3411,12 +4035,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -3431,12 +4055,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C118" s="1">
         <v>200</v>
@@ -3451,12 +4075,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C119" s="1">
         <v>300</v>
@@ -3471,12 +4095,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
@@ -3491,12 +4115,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C121" s="1">
         <v>60</v>
@@ -3518,19 +4142,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB97CD-71B4-4425-9271-A5B35FF69E87}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3541,7 +4166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3552,7 +4177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3570,20 +4195,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B48940D6-69D0-4B4B-AC20-C98544B498D9}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="13.21875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="13.19921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3594,7 +4220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3602,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3613,10 +4239,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3627,7 +4253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3645,27 +4271,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F5F1009-4870-4B7C-B1D7-976DA57B3E6B}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.69921875" customWidth="1"/>
+    <col min="2" max="2" width="24.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3673,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3681,7 +4308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A2+1</f>
         <v>2</v>
@@ -3690,7 +4317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4</f>
         <v>2</v>
@@ -3699,7 +4326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6" si="0">A4+1</f>
         <v>3</v>
@@ -3708,7 +4335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ref="A7" si="1">A6</f>
         <v>3</v>
@@ -3717,7 +4344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ref="A8" si="2">A6+1</f>
         <v>4</v>
@@ -3726,7 +4353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ref="A9" si="3">A8</f>
         <v>4</v>
@@ -3735,7 +4362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ref="A10" si="4">A8+1</f>
         <v>5</v>
@@ -3744,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11" si="5">A10</f>
         <v>5</v>
@@ -3753,7 +4380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12" si="6">A10+1</f>
         <v>6</v>
@@ -3762,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13" si="7">A12</f>
         <v>6</v>
@@ -3771,7 +4398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ref="A14" si="8">A12+1</f>
         <v>7</v>
@@ -3780,7 +4407,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ref="A15" si="9">A14</f>
         <v>7</v>
@@ -3789,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ref="A16" si="10">A14+1</f>
         <v>8</v>
@@ -3798,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ref="A17" si="11">A16</f>
         <v>8</v>
@@ -3807,7 +4434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ref="A18" si="12">A16+1</f>
         <v>9</v>
@@ -3816,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ref="A19" si="13">A18</f>
         <v>9</v>
@@ -3825,7 +4452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ref="A20" si="14">A18+1</f>
         <v>10</v>
@@ -3834,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21" si="15">A20</f>
         <v>10</v>
@@ -3843,7 +4470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ref="A22" si="16">A20+1</f>
         <v>11</v>
@@ -3852,7 +4479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ref="A23" si="17">A22</f>
         <v>11</v>
@@ -3861,7 +4488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ref="A24" si="18">A22+1</f>
         <v>12</v>
@@ -3870,7 +4497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ref="A25" si="19">A24</f>
         <v>12</v>
@@ -3879,7 +4506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ref="A26" si="20">A24+1</f>
         <v>13</v>
@@ -3888,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27" si="21">A26</f>
         <v>13</v>
@@ -3897,7 +4524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ref="A28" si="22">A26+1</f>
         <v>14</v>
@@ -3906,7 +4533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ref="A29" si="23">A28</f>
         <v>14</v>
@@ -3915,7 +4542,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ref="A30" si="24">A28+1</f>
         <v>15</v>
@@ -3924,7 +4551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31" si="25">A30</f>
         <v>15</v>
@@ -3933,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ref="A32" si="26">A30+1</f>
         <v>16</v>
@@ -3942,7 +4569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ref="A33" si="27">A32</f>
         <v>16</v>
@@ -3951,7 +4578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ref="A34" si="28">A32+1</f>
         <v>17</v>
@@ -3960,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ref="A35" si="29">A34</f>
         <v>17</v>
@@ -3969,7 +4596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ref="A36" si="30">A34+1</f>
         <v>18</v>
@@ -3978,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" ref="A37" si="31">A36</f>
         <v>18</v>
@@ -3987,7 +4614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" ref="A38" si="32">A36+1</f>
         <v>19</v>
@@ -3996,7 +4623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" ref="A39" si="33">A38</f>
         <v>19</v>
@@ -4005,7 +4632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" ref="A40" si="34">A38+1</f>
         <v>20</v>
@@ -4014,7 +4641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" ref="A41" si="35">A40</f>
         <v>20</v>
@@ -4023,7 +4650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" ref="A42" si="36">A40+1</f>
         <v>21</v>
@@ -4032,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" ref="A43" si="37">A42</f>
         <v>21</v>
@@ -4041,7 +4668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" ref="A44" si="38">A42+1</f>
         <v>22</v>
@@ -4050,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" ref="A45" si="39">A44</f>
         <v>22</v>
@@ -4059,7 +4686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" ref="A46" si="40">A44+1</f>
         <v>23</v>
@@ -4068,7 +4695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" ref="A47" si="41">A46</f>
         <v>23</v>
@@ -4077,7 +4704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" ref="A48" si="42">A46+1</f>
         <v>24</v>
@@ -4086,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" ref="A49" si="43">A48</f>
         <v>24</v>
@@ -4095,7 +4722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" ref="A50" si="44">A48+1</f>
         <v>25</v>
@@ -4104,7 +4731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" ref="A51" si="45">A50</f>
         <v>25</v>
@@ -4113,7 +4740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" ref="A52" si="46">A50+1</f>
         <v>26</v>
@@ -4122,7 +4749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" ref="A53" si="47">A52</f>
         <v>26</v>
@@ -4131,7 +4758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" ref="A54" si="48">A52+1</f>
         <v>27</v>
@@ -4140,7 +4767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" ref="A55" si="49">A54</f>
         <v>27</v>
@@ -4149,7 +4776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" ref="A56" si="50">A54+1</f>
         <v>28</v>
@@ -4158,7 +4785,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" ref="A57" si="51">A56</f>
         <v>28</v>
@@ -4167,7 +4794,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" ref="A58" si="52">A56+1</f>
         <v>29</v>
@@ -4176,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" ref="A59" si="53">A58</f>
         <v>29</v>
@@ -4185,7 +4812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" ref="A60" si="54">A58+1</f>
         <v>30</v>
@@ -4194,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" ref="A61" si="55">A60</f>
         <v>30</v>
@@ -4203,7 +4830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" ref="A62" si="56">A60+1</f>
         <v>31</v>
@@ -4212,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" ref="A63" si="57">A62</f>
         <v>31</v>
@@ -4221,7 +4848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" ref="A64" si="58">A62+1</f>
         <v>32</v>
@@ -4230,7 +4857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" ref="A65" si="59">A64</f>
         <v>32</v>
@@ -4239,7 +4866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" ref="A66" si="60">A64+1</f>
         <v>33</v>
@@ -4248,7 +4875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67" si="61">A66</f>
         <v>33</v>
@@ -4257,7 +4884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" ref="A68" si="62">A66+1</f>
         <v>34</v>
@@ -4266,7 +4893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" ref="A69" si="63">A68</f>
         <v>34</v>
@@ -4275,7 +4902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" ref="A70" si="64">A68+1</f>
         <v>35</v>
@@ -4284,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" ref="A71" si="65">A70</f>
         <v>35</v>
@@ -4293,7 +4920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" ref="A72" si="66">A70+1</f>
         <v>36</v>
@@ -4302,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" ref="A73" si="67">A72</f>
         <v>36</v>
@@ -4311,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" ref="A74" si="68">A72+1</f>
         <v>37</v>
@@ -4320,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" ref="A75" si="69">A74</f>
         <v>37</v>
@@ -4329,7 +4956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" ref="A76" si="70">A74+1</f>
         <v>38</v>
@@ -4338,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" ref="A77" si="71">A76</f>
         <v>38</v>
@@ -4347,7 +4974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" ref="A78" si="72">A76+1</f>
         <v>39</v>
@@ -4356,7 +4983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" ref="A79" si="73">A78</f>
         <v>39</v>
@@ -4365,7 +4992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" ref="A80" si="74">A78+1</f>
         <v>40</v>
@@ -4374,7 +5001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" ref="A81" si="75">A80</f>
         <v>40</v>
@@ -4383,7 +5010,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" ref="A82" si="76">A80+1</f>
         <v>41</v>
@@ -4392,7 +5019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" ref="A83" si="77">A82</f>
         <v>41</v>
@@ -4401,7 +5028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" ref="A84" si="78">A82+1</f>
         <v>42</v>
@@ -4410,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" ref="A85" si="79">A84</f>
         <v>42</v>
@@ -4419,7 +5046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" ref="A86" si="80">A84+1</f>
         <v>43</v>
@@ -4428,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" ref="A87" si="81">A86</f>
         <v>43</v>
@@ -4437,7 +5064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" ref="A88" si="82">A86+1</f>
         <v>44</v>
@@ -4446,7 +5073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" ref="A89" si="83">A88</f>
         <v>44</v>
@@ -4455,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" ref="A90" si="84">A88+1</f>
         <v>45</v>
@@ -4464,7 +5091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ref="A91" si="85">A90</f>
         <v>45</v>
@@ -4473,7 +5100,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" ref="A92" si="86">A90+1</f>
         <v>46</v>
@@ -4482,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" ref="A93" si="87">A92</f>
         <v>46</v>
@@ -4491,7 +5118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" ref="A94" si="88">A92+1</f>
         <v>47</v>
@@ -4500,7 +5127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" ref="A95" si="89">A94</f>
         <v>47</v>
@@ -4509,7 +5136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" ref="A96" si="90">A94+1</f>
         <v>48</v>
@@ -4518,7 +5145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" ref="A97" si="91">A96</f>
         <v>48</v>
@@ -4527,7 +5154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" ref="A98" si="92">A96+1</f>
         <v>49</v>
@@ -4536,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" ref="A99" si="93">A98</f>
         <v>49</v>
@@ -4545,7 +5172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" ref="A100" si="94">A98+1</f>
         <v>50</v>
@@ -4554,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" ref="A101" si="95">A100</f>
         <v>50</v>
@@ -4563,7 +5190,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" ref="A102" si="96">A100+1</f>
         <v>51</v>
@@ -4572,7 +5199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" ref="A103" si="97">A102</f>
         <v>51</v>
@@ -4581,7 +5208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" ref="A104" si="98">A102+1</f>
         <v>52</v>
@@ -4590,7 +5217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" ref="A105" si="99">A104</f>
         <v>52</v>
@@ -4599,7 +5226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" ref="A106" si="100">A104+1</f>
         <v>53</v>
@@ -4608,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" ref="A107" si="101">A106</f>
         <v>53</v>
@@ -4617,7 +5244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" ref="A108" si="102">A106+1</f>
         <v>54</v>
@@ -4626,7 +5253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" ref="A109" si="103">A108</f>
         <v>54</v>
@@ -4635,7 +5262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" ref="A110" si="104">A108+1</f>
         <v>55</v>
@@ -4644,7 +5271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" ref="A111" si="105">A110</f>
         <v>55</v>
@@ -4653,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" ref="A112" si="106">A110+1</f>
         <v>56</v>
@@ -4662,7 +5289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" ref="A113" si="107">A112</f>
         <v>56</v>
@@ -4671,7 +5298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" ref="A114" si="108">A112+1</f>
         <v>57</v>
@@ -4680,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" ref="A115" si="109">A114</f>
         <v>57</v>
@@ -4689,7 +5316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" ref="A116" si="110">A114+1</f>
         <v>58</v>
@@ -4698,7 +5325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ref="A117" si="111">A116</f>
         <v>58</v>
@@ -4707,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" ref="A118" si="112">A116+1</f>
         <v>59</v>
@@ -4716,7 +5343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" ref="A119" si="113">A118</f>
         <v>59</v>
@@ -4725,7 +5352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" ref="A120" si="114">A118+1</f>
         <v>60</v>
@@ -4734,7 +5361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" ref="A121" si="115">A120</f>
         <v>60</v>
@@ -4743,7 +5370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" ref="A122" si="116">A120+1</f>
         <v>61</v>
@@ -4752,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" ref="A123" si="117">A122</f>
         <v>61</v>
@@ -4761,7 +5388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" ref="A124" si="118">A122+1</f>
         <v>62</v>
@@ -4770,7 +5397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" ref="A125" si="119">A124</f>
         <v>62</v>
@@ -4779,7 +5406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" ref="A126" si="120">A124+1</f>
         <v>63</v>
@@ -4788,7 +5415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" ref="A127" si="121">A126</f>
         <v>63</v>
@@ -4797,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" ref="A128" si="122">A126+1</f>
         <v>64</v>
@@ -4806,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" ref="A129" si="123">A128</f>
         <v>64</v>
@@ -4815,7 +5442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" ref="A130" si="124">A128+1</f>
         <v>65</v>
@@ -4824,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" ref="A131" si="125">A130</f>
         <v>65</v>
@@ -4833,7 +5460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" ref="A132" si="126">A130+1</f>
         <v>66</v>
@@ -4842,7 +5469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" ref="A133" si="127">A132</f>
         <v>66</v>
@@ -4851,7 +5478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" ref="A134" si="128">A132+1</f>
         <v>67</v>
@@ -4860,7 +5487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" ref="A135" si="129">A134</f>
         <v>67</v>
@@ -4869,7 +5496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" ref="A136" si="130">A134+1</f>
         <v>68</v>
@@ -4878,7 +5505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" ref="A137" si="131">A136</f>
         <v>68</v>
@@ -4887,7 +5514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" ref="A138" si="132">A136+1</f>
         <v>69</v>
@@ -4896,7 +5523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" ref="A139" si="133">A138</f>
         <v>69</v>
@@ -4905,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" ref="A140" si="134">A138+1</f>
         <v>70</v>
@@ -4914,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" ref="A141" si="135">A140</f>
         <v>70</v>
@@ -4923,7 +5550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" ref="A142" si="136">A140+1</f>
         <v>71</v>
@@ -4932,7 +5559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" ref="A143" si="137">A142</f>
         <v>71</v>
@@ -4941,7 +5568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" ref="A144" si="138">A142+1</f>
         <v>72</v>
@@ -4950,7 +5577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" ref="A145" si="139">A144</f>
         <v>72</v>
@@ -4959,7 +5586,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" ref="A146" si="140">A144+1</f>
         <v>73</v>
@@ -4968,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" ref="A147" si="141">A146</f>
         <v>73</v>
@@ -4977,7 +5604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" ref="A148" si="142">A146+1</f>
         <v>74</v>
@@ -4986,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" ref="A149" si="143">A148</f>
         <v>74</v>
@@ -4995,7 +5622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" ref="A150" si="144">A148+1</f>
         <v>75</v>
@@ -5004,7 +5631,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" ref="A151" si="145">A150</f>
         <v>75</v>
@@ -5013,7 +5640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" ref="A152" si="146">A150+1</f>
         <v>76</v>
@@ -5022,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" ref="A153" si="147">A152</f>
         <v>76</v>
@@ -5031,7 +5658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" ref="A154" si="148">A152+1</f>
         <v>77</v>
@@ -5040,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" ref="A155" si="149">A154</f>
         <v>77</v>
@@ -5049,7 +5676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" ref="A156" si="150">A154+1</f>
         <v>78</v>
@@ -5058,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" ref="A157" si="151">A156</f>
         <v>78</v>
@@ -5067,7 +5694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" ref="A158" si="152">A156+1</f>
         <v>79</v>
@@ -5076,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" ref="A159" si="153">A158</f>
         <v>79</v>
@@ -5085,7 +5712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" ref="A160" si="154">A158+1</f>
         <v>80</v>
@@ -5094,7 +5721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" ref="A161" si="155">A160</f>
         <v>80</v>
@@ -5103,7 +5730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" ref="A162" si="156">A160+1</f>
         <v>81</v>
@@ -5112,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" ref="A163" si="157">A162</f>
         <v>81</v>
@@ -5121,7 +5748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" ref="A164" si="158">A162+1</f>
         <v>82</v>
@@ -5130,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" ref="A165" si="159">A164</f>
         <v>82</v>
@@ -5139,7 +5766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" ref="A166" si="160">A164+1</f>
         <v>83</v>
@@ -5148,7 +5775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" ref="A167" si="161">A166</f>
         <v>83</v>
@@ -5157,7 +5784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" ref="A168" si="162">A166+1</f>
         <v>84</v>
@@ -5166,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" ref="A169" si="163">A168</f>
         <v>84</v>
@@ -5175,7 +5802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" ref="A170" si="164">A168+1</f>
         <v>85</v>
@@ -5184,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" ref="A171" si="165">A170</f>
         <v>85</v>
@@ -5193,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" ref="A172" si="166">A170+1</f>
         <v>86</v>
@@ -5202,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" ref="A173" si="167">A172</f>
         <v>86</v>
@@ -5211,7 +5838,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" ref="A174" si="168">A172+1</f>
         <v>87</v>
@@ -5220,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" ref="A175" si="169">A174</f>
         <v>87</v>
@@ -5229,7 +5856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" ref="A176" si="170">A174+1</f>
         <v>88</v>
@@ -5238,7 +5865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" ref="A177" si="171">A176</f>
         <v>88</v>
@@ -5247,7 +5874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" ref="A178" si="172">A176+1</f>
         <v>89</v>
@@ -5256,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" ref="A179" si="173">A178</f>
         <v>89</v>
@@ -5265,7 +5892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" ref="A180" si="174">A178+1</f>
         <v>90</v>
@@ -5274,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" ref="A181" si="175">A180</f>
         <v>90</v>
@@ -5283,7 +5910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" ref="A182" si="176">A180+1</f>
         <v>91</v>
@@ -5292,7 +5919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" ref="A183" si="177">A182</f>
         <v>91</v>
@@ -5301,7 +5928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" ref="A184" si="178">A182+1</f>
         <v>92</v>
@@ -5310,7 +5937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" ref="A185" si="179">A184</f>
         <v>92</v>
@@ -5319,7 +5946,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" ref="A186" si="180">A184+1</f>
         <v>93</v>
@@ -5328,7 +5955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" ref="A187" si="181">A186</f>
         <v>93</v>
@@ -5337,7 +5964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" ref="A188" si="182">A186+1</f>
         <v>94</v>
@@ -5346,7 +5973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" ref="A189" si="183">A188</f>
         <v>94</v>
@@ -5355,7 +5982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" ref="A190" si="184">A188+1</f>
         <v>95</v>
@@ -5364,7 +5991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" ref="A191" si="185">A190</f>
         <v>95</v>
@@ -5373,7 +6000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" ref="A192" si="186">A190+1</f>
         <v>96</v>
@@ -5382,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" ref="A193" si="187">A192</f>
         <v>96</v>
@@ -5391,7 +6018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <f t="shared" ref="A194" si="188">A192+1</f>
         <v>97</v>
@@ -5400,7 +6027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" ref="A195" si="189">A194</f>
         <v>97</v>
@@ -5409,7 +6036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" ref="A196" si="190">A194+1</f>
         <v>98</v>
@@ -5418,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" ref="A197" si="191">A196</f>
         <v>98</v>
@@ -5427,7 +6054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" ref="A198" si="192">A196+1</f>
         <v>99</v>
@@ -5436,7 +6063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" ref="A199" si="193">A198</f>
         <v>99</v>
@@ -5445,7 +6072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" ref="A200" si="194">A198+1</f>
         <v>100</v>
@@ -5454,7 +6081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" ref="A201" si="195">A200</f>
         <v>100</v>
@@ -5463,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" ref="A202" si="196">A200+1</f>
         <v>101</v>
@@ -5472,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" ref="A203" si="197">A202</f>
         <v>101</v>
@@ -5481,7 +6108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" ref="A204" si="198">A202+1</f>
         <v>102</v>
@@ -5490,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" ref="A205" si="199">A204</f>
         <v>102</v>
@@ -5499,7 +6126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" ref="A206" si="200">A204+1</f>
         <v>103</v>
@@ -5508,7 +6135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" ref="A207" si="201">A206</f>
         <v>103</v>
@@ -5517,7 +6144,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" ref="A208" si="202">A206+1</f>
         <v>104</v>
@@ -5526,7 +6153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" ref="A209" si="203">A208</f>
         <v>104</v>
@@ -5535,7 +6162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" ref="A210" si="204">A208+1</f>
         <v>105</v>
@@ -5544,7 +6171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" ref="A211" si="205">A210</f>
         <v>105</v>
@@ -5553,7 +6180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" ref="A212" si="206">A210+1</f>
         <v>106</v>
@@ -5562,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" ref="A213" si="207">A212</f>
         <v>106</v>
@@ -5571,7 +6198,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" ref="A214" si="208">A212+1</f>
         <v>107</v>
@@ -5580,7 +6207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" ref="A215" si="209">A214</f>
         <v>107</v>
@@ -5589,7 +6216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" ref="A216" si="210">A214+1</f>
         <v>108</v>
@@ -5598,7 +6225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" ref="A217" si="211">A216</f>
         <v>108</v>
@@ -5607,7 +6234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" ref="A218" si="212">A216+1</f>
         <v>109</v>
@@ -5616,7 +6243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" ref="A219" si="213">A218</f>
         <v>109</v>
@@ -5625,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" ref="A220" si="214">A218+1</f>
         <v>110</v>
@@ -5634,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" ref="A221" si="215">A220</f>
         <v>110</v>
@@ -5643,7 +6270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" ref="A222" si="216">A220+1</f>
         <v>111</v>
@@ -5652,7 +6279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" ref="A223" si="217">A222</f>
         <v>111</v>
@@ -5661,7 +6288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" ref="A224" si="218">A222+1</f>
         <v>112</v>
@@ -5670,7 +6297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" ref="A225" si="219">A224</f>
         <v>112</v>
@@ -5679,7 +6306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" ref="A226" si="220">A224+1</f>
         <v>113</v>
@@ -5688,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" ref="A227" si="221">A226</f>
         <v>113</v>
@@ -5697,7 +6324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" ref="A228" si="222">A226+1</f>
         <v>114</v>
@@ -5706,7 +6333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" ref="A229" si="223">A228</f>
         <v>114</v>
@@ -5715,7 +6342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" ref="A230" si="224">A228+1</f>
         <v>115</v>
@@ -5724,7 +6351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" ref="A231" si="225">A230</f>
         <v>115</v>
@@ -5733,7 +6360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" ref="A232" si="226">A230+1</f>
         <v>116</v>
@@ -5742,7 +6369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" ref="A233" si="227">A232</f>
         <v>116</v>
@@ -5751,7 +6378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" ref="A234" si="228">A232+1</f>
         <v>117</v>
@@ -5760,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" ref="A235" si="229">A234</f>
         <v>117</v>
@@ -5769,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" ref="A236" si="230">A234+1</f>
         <v>118</v>
@@ -5778,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" ref="A237" si="231">A236</f>
         <v>118</v>
@@ -5787,7 +6414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" ref="A238" si="232">A236+1</f>
         <v>119</v>
@@ -5796,7 +6423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" ref="A239" si="233">A238</f>
         <v>119</v>
@@ -5805,7 +6432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" ref="A240" si="234">A238+1</f>
         <v>120</v>
@@ -5814,13 +6441,1719 @@
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" ref="A241" si="235">A240</f>
         <v>120</v>
       </c>
       <c r="B241">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACCEB8F-C642-4296-970F-3C5144D14615}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="13.19921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C7E29F0-61EB-46D2-8BD1-2D8A312B7468}">
+  <sheetPr codeName="Sheet8"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.8984375" style="1"/>
+    <col min="2" max="2" width="13.19921875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.8984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C02A43-25AF-4E27-BCDD-AF38D59CF4A3}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="A1:B193"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B187" sqref="B187"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>90</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>152</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>153</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>154</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>155</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>156</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>157</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>158</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>159</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>160</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>161</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>162</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>163</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>164</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>165</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>166</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>167</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>168</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>169</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>170</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>171</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>172</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>173</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>174</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>175</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>176</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>177</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>178</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>179</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>180</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>181</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>182</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>183</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>184</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>185</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>186</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>187</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>188</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>189</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>190</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>191</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>192</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>193</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\14- Entity Framwork, MVC\MVC\01- lab\FinalProject\MVC_FinalProject\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A389D9-AF78-4263-939A-398989E8FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5E0D5-DB59-43D6-AD30-BBA656C73243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="299">
   <si>
     <t>Id</t>
   </si>
@@ -63,15 +63,9 @@
     <t>XL</t>
   </si>
   <si>
-    <t>Tshirt</t>
-  </si>
-  <si>
     <t>Shoes</t>
   </si>
   <si>
-    <t>Phone</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -769,6 +763,174 @@
   </si>
   <si>
     <t>BIGTREAT</t>
+  </si>
+  <si>
+    <t>Hero Basic mens Round Neck Undershirt</t>
+  </si>
+  <si>
+    <t>Hero Basic</t>
+  </si>
+  <si>
+    <t>/Image/Products/3.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/4.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/5.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/6.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/7.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/8.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/9.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/10.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/11.jpg</t>
+  </si>
+  <si>
+    <t>/Image/Products/12.jpg</t>
+  </si>
+  <si>
+    <t>Romba</t>
+  </si>
+  <si>
+    <t>Romba Men's Summer Text Sleeve Cotton T Shirt</t>
+  </si>
+  <si>
+    <t>Andora</t>
+  </si>
+  <si>
+    <t>Andora Mens 33S22M30333 T-Shirt</t>
+  </si>
+  <si>
+    <t>CAESAR</t>
+  </si>
+  <si>
+    <t>CAESAR Mens MensSport T-Shirt With Short Sleeves MensSport T-Shirt With Short Sleeves</t>
+  </si>
+  <si>
+    <t>Nexus Original Cotton T-Shirt</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>Ravin EG Mens Ravin Chest Printed Cotton T-Shirt For Men S22M048 T-Shirt</t>
+  </si>
+  <si>
+    <t>Ravin EG</t>
+  </si>
+  <si>
+    <t>CAESAR Mens Mens Printed Round Neck T-Shirt T-Shirt</t>
+  </si>
+  <si>
+    <t>adidas Mens Train Essentials Seasonal Logo Training T-Shirt TRAINING T-SHIRTS for Men T-Shirt</t>
+  </si>
+  <si>
+    <t>adidas</t>
+  </si>
+  <si>
+    <t>Adidas linear beach-bit short sleeve graphic t-shirt t-shirts for men</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>BlackEdition Over size snake T-shirt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trousers </t>
+  </si>
+  <si>
+    <t>BLACK TIGER</t>
+  </si>
+  <si>
+    <t>HIGH QUALITY Classic-fit Men's Pants for Gentleman</t>
+  </si>
+  <si>
+    <t>/Image/Products/13.jpg</t>
+  </si>
+  <si>
+    <t>Mintra</t>
+  </si>
+  <si>
+    <t>Mintra CAI Women Shoes</t>
+  </si>
+  <si>
+    <t>/Image/Products/14.jpg</t>
+  </si>
+  <si>
+    <t>STITCH</t>
+  </si>
+  <si>
+    <t>STITCH mens Pack of 5 Lycra Ankle Socks</t>
+  </si>
+  <si>
+    <t>/Image/Products/15.jpg</t>
+  </si>
+  <si>
+    <t>SEIKO QUARTZ Metal Band Analg Watch for Men BLUE Dial SUR399P1</t>
+  </si>
+  <si>
+    <t>/Image/Products/16.jpg</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Watch</t>
+  </si>
+  <si>
+    <t>SEIKO</t>
+  </si>
+  <si>
+    <t>Jamila</t>
+  </si>
+  <si>
+    <t>Jamila Women Stripped oversized shirt with two pockets</t>
+  </si>
+  <si>
+    <t>/Image/Products/17.jpg</t>
+  </si>
+  <si>
+    <t>Toshiba - Washing Machine - 8kg - Silver - Inverter - 1400rpm - TW-BJ90M4E(SK)</t>
+  </si>
+  <si>
+    <t>Toshiba - Washing Machine</t>
+  </si>
+  <si>
+    <t>/Image/Products/18.jpg</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>Nutricook AF357V AIR FRYER 3 VISION 5.7L 1700W Black clear window - International warranty</t>
+  </si>
+  <si>
+    <t>/Image/Products/19.jpg</t>
+  </si>
+  <si>
+    <t>Nutricook AF357V AIR FRYER</t>
+  </si>
+  <si>
+    <t>Fryer</t>
+  </si>
+  <si>
+    <t>Washer</t>
   </si>
 </sst>
 </file>
@@ -778,7 +940,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,6 +958,20 @@
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF565959"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0F1111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -819,17 +995,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,47 +1297,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1180,42 +1405,42 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B2">
         <v>0.3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>45992</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>45993</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44898</v>
       </c>
     </row>
@@ -1227,546 +1452,670 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833AB6E-1E22-4D15-9B57-21FBC3AFFCBA}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="5" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B16" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="B17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E27" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E34" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="E36" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E37" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E38" s="5">
         <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>21</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>24</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>30</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1790,22 +2139,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1813,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E2" s="1">
         <v>120</v>
@@ -1833,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E3" s="1">
         <v>100</v>
@@ -1853,13 +2202,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E4" s="1">
         <v>80</v>
@@ -1873,13 +2222,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E5" s="1">
         <v>200</v>
@@ -1893,13 +2242,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1">
         <v>120</v>
@@ -1913,13 +2262,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>300</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E7" s="1">
         <v>100</v>
@@ -1933,13 +2282,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E8" s="1">
         <v>80</v>
@@ -1953,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1">
         <v>200</v>
@@ -1973,13 +2322,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>100</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E10" s="1">
         <v>120</v>
@@ -1993,13 +2342,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>50</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E11" s="1">
         <v>100</v>
@@ -2013,13 +2362,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E12" s="1">
         <v>80</v>
@@ -2033,13 +2382,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E13" s="1">
         <v>200</v>
@@ -2053,13 +2402,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>200</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E14" s="1">
         <v>120</v>
@@ -2073,13 +2422,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>300</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E15" s="1">
         <v>100</v>
@@ -2093,13 +2442,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E16" s="1">
         <v>80</v>
@@ -2113,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E17" s="1">
         <v>200</v>
@@ -2133,13 +2482,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="1">
         <v>100</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E18" s="1">
         <v>120</v>
@@ -2153,13 +2502,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="1">
         <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E19" s="1">
         <v>100</v>
@@ -2173,13 +2522,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
         <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E20" s="1">
         <v>80</v>
@@ -2193,13 +2542,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E21" s="1">
         <v>200</v>
@@ -2213,13 +2562,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E22" s="1">
         <v>120</v>
@@ -2233,13 +2582,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="1">
         <v>300</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E23" s="1">
         <v>100</v>
@@ -2253,13 +2602,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E24" s="1">
         <v>80</v>
@@ -2273,13 +2622,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="1">
         <v>60</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E25" s="1">
         <v>200</v>
@@ -2293,13 +2642,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1">
         <v>100</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E26" s="1">
         <v>120</v>
@@ -2313,13 +2662,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C27" s="1">
         <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E27" s="1">
         <v>100</v>
@@ -2333,13 +2682,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1">
         <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E28" s="1">
         <v>80</v>
@@ -2353,13 +2702,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E29" s="1">
         <v>200</v>
@@ -2373,13 +2722,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="1">
         <v>200</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E30" s="1">
         <v>120</v>
@@ -2393,13 +2742,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1">
         <v>300</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E31" s="1">
         <v>100</v>
@@ -2413,13 +2762,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C32" s="1">
         <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" s="1">
         <v>80</v>
@@ -2433,13 +2782,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="1">
         <v>60</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E33" s="1">
         <v>200</v>
@@ -2453,13 +2802,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C34" s="1">
         <v>100</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E34" s="1">
         <v>120</v>
@@ -2473,13 +2822,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1">
         <v>50</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E35" s="1">
         <v>100</v>
@@ -2493,13 +2842,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C36" s="1">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E36" s="1">
         <v>80</v>
@@ -2513,13 +2862,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E37" s="1">
         <v>200</v>
@@ -2533,13 +2882,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E38" s="1">
         <v>120</v>
@@ -2553,13 +2902,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1">
         <v>300</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E39" s="1">
         <v>100</v>
@@ -2573,13 +2922,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C40" s="1">
         <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E40" s="1">
         <v>80</v>
@@ -2593,13 +2942,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1">
         <v>60</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E41" s="1">
         <v>200</v>
@@ -2613,13 +2962,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" s="1">
         <v>100</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E42" s="1">
         <v>120</v>
@@ -2633,13 +2982,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43" s="1">
         <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E43" s="1">
         <v>100</v>
@@ -2653,13 +3002,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1">
         <v>20</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E44" s="1">
         <v>80</v>
@@ -2673,13 +3022,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E45" s="1">
         <v>200</v>
@@ -2693,13 +3042,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E46" s="1">
         <v>120</v>
@@ -2713,13 +3062,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47" s="1">
         <v>300</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E47" s="1">
         <v>100</v>
@@ -2733,13 +3082,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1">
         <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E48" s="1">
         <v>80</v>
@@ -2753,13 +3102,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C49" s="1">
         <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E49" s="1">
         <v>200</v>
@@ -2773,13 +3122,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C50" s="1">
         <v>100</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E50" s="1">
         <v>120</v>
@@ -2793,13 +3142,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E51" s="1">
         <v>100</v>
@@ -2813,13 +3162,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C52" s="1">
         <v>20</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E52" s="1">
         <v>80</v>
@@ -2833,13 +3182,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E53" s="1">
         <v>200</v>
@@ -2853,13 +3202,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C54" s="1">
         <v>200</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E54" s="1">
         <v>120</v>
@@ -2873,13 +3222,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C55" s="1">
         <v>300</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E55" s="1">
         <v>100</v>
@@ -2893,13 +3242,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C56" s="1">
         <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E56" s="1">
         <v>80</v>
@@ -2913,13 +3262,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C57" s="1">
         <v>60</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E57" s="1">
         <v>200</v>
@@ -2933,13 +3282,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="1">
         <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E58" s="1">
         <v>120</v>
@@ -2953,13 +3302,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C59" s="1">
         <v>50</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E59" s="1">
         <v>100</v>
@@ -2973,13 +3322,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C60" s="1">
         <v>20</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1">
         <v>80</v>
@@ -2993,13 +3342,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E61" s="1">
         <v>200</v>
@@ -3013,13 +3362,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C62" s="1">
         <v>200</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E62" s="1">
         <v>120</v>
@@ -3033,13 +3382,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C63" s="1">
         <v>300</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E63" s="1">
         <v>100</v>
@@ -3053,13 +3402,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C64" s="1">
         <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E64" s="1">
         <v>80</v>
@@ -3073,13 +3422,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C65" s="1">
         <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E65" s="1">
         <v>200</v>
@@ -3093,13 +3442,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C66" s="1">
         <v>100</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E66" s="1">
         <v>120</v>
@@ -3113,13 +3462,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C67" s="1">
         <v>50</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E67" s="1">
         <v>100</v>
@@ -3133,13 +3482,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C68" s="1">
         <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E68" s="1">
         <v>80</v>
@@ -3153,13 +3502,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E69" s="1">
         <v>200</v>
@@ -3173,13 +3522,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C70" s="1">
         <v>200</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E70" s="1">
         <v>120</v>
@@ -3193,13 +3542,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C71" s="1">
         <v>300</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E71" s="1">
         <v>100</v>
@@ -3213,13 +3562,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C72" s="1">
         <v>10</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E72" s="1">
         <v>80</v>
@@ -3233,13 +3582,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C73" s="1">
         <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E73" s="1">
         <v>200</v>
@@ -3253,13 +3602,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C74" s="1">
         <v>100</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E74" s="1">
         <v>120</v>
@@ -3273,13 +3622,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" s="1">
         <v>50</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E75" s="1">
         <v>100</v>
@@ -3293,13 +3642,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C76" s="1">
         <v>20</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E76" s="1">
         <v>80</v>
@@ -3313,13 +3662,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E77" s="1">
         <v>200</v>
@@ -3333,13 +3682,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C78" s="1">
         <v>200</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E78" s="1">
         <v>120</v>
@@ -3353,13 +3702,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C79" s="1">
         <v>300</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E79" s="1">
         <v>100</v>
@@ -3373,13 +3722,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C80" s="1">
         <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E80" s="1">
         <v>80</v>
@@ -3393,13 +3742,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" s="1">
         <v>60</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E81" s="1">
         <v>200</v>
@@ -3413,13 +3762,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C82" s="1">
         <v>100</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E82" s="1">
         <v>120</v>
@@ -3433,13 +3782,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C83" s="1">
         <v>50</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E83" s="1">
         <v>100</v>
@@ -3453,13 +3802,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1">
         <v>20</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E84" s="1">
         <v>80</v>
@@ -3473,13 +3822,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E85" s="1">
         <v>200</v>
@@ -3493,13 +3842,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" s="1">
         <v>200</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E86" s="1">
         <v>120</v>
@@ -3513,13 +3862,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="1">
         <v>300</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E87" s="1">
         <v>100</v>
@@ -3533,13 +3882,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E88" s="1">
         <v>80</v>
@@ -3553,13 +3902,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C89" s="1">
         <v>60</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E89" s="1">
         <v>200</v>
@@ -3573,13 +3922,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C90" s="1">
         <v>100</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E90" s="1">
         <v>120</v>
@@ -3593,13 +3942,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C91" s="1">
         <v>50</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E91" s="1">
         <v>100</v>
@@ -3613,13 +3962,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C92" s="1">
         <v>20</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E92" s="1">
         <v>80</v>
@@ -3633,13 +3982,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E93" s="1">
         <v>200</v>
@@ -3653,13 +4002,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C94" s="1">
         <v>200</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E94" s="1">
         <v>120</v>
@@ -3673,13 +4022,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C95" s="1">
         <v>300</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E95" s="1">
         <v>100</v>
@@ -3693,13 +4042,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C96" s="1">
         <v>10</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E96" s="1">
         <v>80</v>
@@ -3713,13 +4062,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C97" s="1">
         <v>60</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E97" s="1">
         <v>200</v>
@@ -3733,13 +4082,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C98" s="1">
         <v>100</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E98" s="1">
         <v>120</v>
@@ -3753,13 +4102,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C99" s="1">
         <v>50</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E99" s="1">
         <v>100</v>
@@ -3773,13 +4122,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C100" s="1">
         <v>20</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E100" s="1">
         <v>80</v>
@@ -3793,13 +4142,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E101" s="1">
         <v>200</v>
@@ -3813,13 +4162,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C102" s="1">
         <v>200</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E102" s="1">
         <v>120</v>
@@ -3833,13 +4182,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C103" s="1">
         <v>300</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E103" s="1">
         <v>100</v>
@@ -3853,13 +4202,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C104" s="1">
         <v>10</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E104" s="1">
         <v>80</v>
@@ -3873,13 +4222,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C105" s="1">
         <v>60</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E105" s="1">
         <v>200</v>
@@ -3893,13 +4242,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C106" s="1">
         <v>100</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E106" s="1">
         <v>120</v>
@@ -3913,13 +4262,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C107" s="1">
         <v>50</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E107" s="1">
         <v>100</v>
@@ -3933,13 +4282,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" s="1">
         <v>20</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E108" s="1">
         <v>80</v>
@@ -3953,13 +4302,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E109" s="1">
         <v>200</v>
@@ -3973,13 +4322,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C110" s="1">
         <v>200</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E110" s="1">
         <v>120</v>
@@ -3993,13 +4342,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C111" s="1">
         <v>300</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E111" s="1">
         <v>100</v>
@@ -4013,13 +4362,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C112" s="1">
         <v>10</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E112" s="1">
         <v>80</v>
@@ -4033,13 +4382,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C113" s="1">
         <v>60</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E113" s="1">
         <v>200</v>
@@ -4053,13 +4402,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C114" s="1">
         <v>100</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E114" s="1">
         <v>120</v>
@@ -4073,13 +4422,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C115" s="1">
         <v>50</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E115" s="1">
         <v>100</v>
@@ -4093,13 +4442,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C116" s="1">
         <v>20</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E116" s="1">
         <v>80</v>
@@ -4113,13 +4462,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E117" s="1">
         <v>200</v>
@@ -4133,13 +4482,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C118" s="1">
         <v>200</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E118" s="1">
         <v>120</v>
@@ -4153,13 +4502,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C119" s="1">
         <v>300</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E119" s="1">
         <v>100</v>
@@ -4173,13 +4522,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C120" s="1">
         <v>10</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E120" s="1">
         <v>80</v>
@@ -4193,13 +4542,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C121" s="1">
         <v>60</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E121" s="1">
         <v>200</v>
@@ -4249,7 +4598,7 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -4261,7 +4610,7 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4303,7 +4652,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -4314,7 +4663,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4361,10 +4710,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6554,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6562,7 +6911,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>20</v>
@@ -6573,7 +6922,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>50</v>
@@ -6584,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -6616,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -6624,7 +6973,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -6632,7 +6981,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -6640,7 +6989,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -6648,7 +6997,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -6656,7 +7005,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6664,7 +7013,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6692,7 +7041,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6700,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6708,7 +7057,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6716,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6724,7 +7073,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6732,7 +7081,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6740,7 +7089,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6748,7 +7097,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6756,7 +7105,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6764,7 +7113,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6772,7 +7121,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6780,7 +7129,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6788,7 +7137,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6796,7 +7145,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6804,7 +7153,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6812,7 +7161,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6820,7 +7169,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6828,7 +7177,7 @@
         <v>18</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6836,7 +7185,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6844,7 +7193,7 @@
         <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6852,7 +7201,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6860,7 +7209,7 @@
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6868,7 +7217,7 @@
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6876,7 +7225,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6884,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6892,7 +7241,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6900,7 +7249,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6908,7 +7257,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6916,7 +7265,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6924,7 +7273,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6932,7 +7281,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6940,7 +7289,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6948,7 +7297,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6956,7 +7305,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6964,7 +7313,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6972,7 +7321,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6980,7 +7329,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6988,7 +7337,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -6996,7 +7345,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7004,7 +7353,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7012,7 +7361,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7020,7 +7369,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7028,7 +7377,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7036,7 +7385,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7044,7 +7393,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7052,7 +7401,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7060,7 +7409,7 @@
         <v>47</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7068,7 +7417,7 @@
         <v>48</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7076,7 +7425,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7084,7 +7433,7 @@
         <v>50</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7092,7 +7441,7 @@
         <v>51</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7100,7 +7449,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7108,7 +7457,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7116,7 +7465,7 @@
         <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7124,7 +7473,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7132,7 +7481,7 @@
         <v>56</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7140,7 +7489,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7148,7 +7497,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7156,7 +7505,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7164,7 +7513,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7172,7 +7521,7 @@
         <v>61</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7180,7 +7529,7 @@
         <v>62</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7188,7 +7537,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7196,7 +7545,7 @@
         <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7204,7 +7553,7 @@
         <v>65</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7212,7 +7561,7 @@
         <v>66</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7220,7 +7569,7 @@
         <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7228,7 +7577,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7236,7 +7585,7 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7244,7 +7593,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7252,7 +7601,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7260,7 +7609,7 @@
         <v>72</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7268,7 +7617,7 @@
         <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7276,7 +7625,7 @@
         <v>74</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7284,7 +7633,7 @@
         <v>75</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7292,7 +7641,7 @@
         <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7300,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7308,7 +7657,7 @@
         <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7316,7 +7665,7 @@
         <v>79</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7324,7 +7673,7 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7332,7 +7681,7 @@
         <v>81</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7340,7 +7689,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7348,7 +7697,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7356,7 +7705,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7364,7 +7713,7 @@
         <v>85</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7372,7 +7721,7 @@
         <v>86</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7380,7 +7729,7 @@
         <v>87</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7388,7 +7737,7 @@
         <v>88</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7396,7 +7745,7 @@
         <v>89</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7404,7 +7753,7 @@
         <v>90</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7412,7 +7761,7 @@
         <v>91</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7420,7 +7769,7 @@
         <v>92</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7428,7 +7777,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7436,7 +7785,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7444,7 +7793,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7452,7 +7801,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7460,7 +7809,7 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7468,7 +7817,7 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7476,7 +7825,7 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7484,7 +7833,7 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7492,7 +7841,7 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7500,7 +7849,7 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7508,7 +7857,7 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7516,7 +7865,7 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7524,7 +7873,7 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7532,7 +7881,7 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7540,7 +7889,7 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7548,7 +7897,7 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7556,7 +7905,7 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7564,7 +7913,7 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7572,7 +7921,7 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7580,7 +7929,7 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7588,7 +7937,7 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7596,7 +7945,7 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7604,7 +7953,7 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7612,7 +7961,7 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7620,7 +7969,7 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7628,7 +7977,7 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7636,7 +7985,7 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7644,7 +7993,7 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7652,7 +8001,7 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7660,7 +8009,7 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7668,7 +8017,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7676,7 +8025,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7684,7 +8033,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7692,7 +8041,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7700,7 +8049,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7708,7 +8057,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7716,7 +8065,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7724,7 +8073,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7732,7 +8081,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7740,7 +8089,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7748,7 +8097,7 @@
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7756,7 +8105,7 @@
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7764,7 +8113,7 @@
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7772,7 +8121,7 @@
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7780,7 +8129,7 @@
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7788,7 +8137,7 @@
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7796,7 +8145,7 @@
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7804,7 +8153,7 @@
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7812,7 +8161,7 @@
         <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7820,7 +8169,7 @@
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7828,7 +8177,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7836,7 +8185,7 @@
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7844,7 +8193,7 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7852,7 +8201,7 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7860,7 +8209,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7868,7 +8217,7 @@
         <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7876,7 +8225,7 @@
         <v>149</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7884,7 +8233,7 @@
         <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7892,7 +8241,7 @@
         <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7900,7 +8249,7 @@
         <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7908,7 +8257,7 @@
         <v>153</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7916,7 +8265,7 @@
         <v>154</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7924,7 +8273,7 @@
         <v>155</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7932,7 +8281,7 @@
         <v>156</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7940,7 +8289,7 @@
         <v>157</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7948,7 +8297,7 @@
         <v>158</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7956,7 +8305,7 @@
         <v>159</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7964,7 +8313,7 @@
         <v>160</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7972,7 +8321,7 @@
         <v>161</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7980,7 +8329,7 @@
         <v>162</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7988,7 +8337,7 @@
         <v>163</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -7996,7 +8345,7 @@
         <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8004,7 +8353,7 @@
         <v>165</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8012,7 +8361,7 @@
         <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8020,7 +8369,7 @@
         <v>167</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8028,7 +8377,7 @@
         <v>168</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8036,7 +8385,7 @@
         <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8044,7 +8393,7 @@
         <v>170</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8052,7 +8401,7 @@
         <v>171</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8060,7 +8409,7 @@
         <v>172</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8068,7 +8417,7 @@
         <v>173</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8076,7 +8425,7 @@
         <v>174</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8084,7 +8433,7 @@
         <v>175</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8092,7 +8441,7 @@
         <v>176</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8100,7 +8449,7 @@
         <v>177</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8108,7 +8457,7 @@
         <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8116,7 +8465,7 @@
         <v>179</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8124,7 +8473,7 @@
         <v>180</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8132,7 +8481,7 @@
         <v>181</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8140,7 +8489,7 @@
         <v>182</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8148,7 +8497,7 @@
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8156,7 +8505,7 @@
         <v>184</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8164,7 +8513,7 @@
         <v>185</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8172,7 +8521,7 @@
         <v>186</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8180,7 +8529,7 @@
         <v>187</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8188,7 +8537,7 @@
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8196,7 +8545,7 @@
         <v>189</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8204,7 +8553,7 @@
         <v>190</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8212,7 +8561,7 @@
         <v>191</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8220,7 +8569,7 @@
         <v>192</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
@@ -8228,7 +8577,7 @@
         <v>193</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/DB/DB.xlsx
+++ b/DB/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\14- Entity Framwork, MVC\MVC\01- lab\FinalProject\MVC_FinalProject\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Documents\GitHub\MVC_FinalProject\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A389D9-AF78-4263-939A-398989E8FB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C8078A-83F1-4E31-8EA0-832FE367CD96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="246">
   <si>
     <t>Id</t>
   </si>
@@ -769,6 +780,9 @@
   </si>
   <si>
     <t>BIGTREAT</t>
+  </si>
+  <si>
+    <t>Star</t>
   </si>
 </sst>
 </file>
@@ -819,17 +833,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1193,7 +1206,7 @@
       <c r="B2">
         <v>0.3</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>45992</v>
       </c>
     </row>
@@ -1204,7 +1217,7 @@
       <c r="B3">
         <v>0.15</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>45993</v>
       </c>
     </row>
@@ -1215,7 +1228,7 @@
       <c r="B4">
         <v>0.25</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>44898</v>
       </c>
     </row>
@@ -1227,10 +1240,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1833AB6E-1E22-4D15-9B57-21FBC3AFFCBA}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E31"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1251,7 @@
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1254,515 +1267,608 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E31" s="3">
-        <v>1</v>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4216,7 +4322,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76BB97CD-71B4-4425-9271-A5B35FF69E87}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -4228,7 +4334,7 @@
     <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4239,7 +4345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4249,9 +4355,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4261,7 +4366,6 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
